--- a/typescountssizedescriptions.xlsx
+++ b/typescountssizedescriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346c636219931f15/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:40009_{E7FA17B0-804B-4503-9851-AE82476475A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50370604-8E86-4822-990B-97DE870F74E1}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:40009_{E7FA17B0-804B-4503-9851-AE82476475A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A724B3E7-931D-4007-A362-C1F4C09E3F8B}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1200" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="typescountwithdescription" sheetId="1" r:id="rId1"/>
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1714,7 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
         <v>76</v>
@@ -1728,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
         <v>86</v>
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
         <v>87</v>

--- a/typescountssizedescriptions.xlsx
+++ b/typescountssizedescriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346c636219931f15/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:40009_{E7FA17B0-804B-4503-9851-AE82476475A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A724B3E7-931D-4007-A362-C1F4C09E3F8B}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:40009_{E7FA17B0-804B-4503-9851-AE82476475A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6C7D150-A9C4-4FDD-A128-BB30ABDEF303}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,296 +1162,284 @@
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>2080</v>
+      </c>
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="F1">
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>4</v>
-      </c>
-      <c r="I1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>134236</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>118671</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>118671</v>
-      </c>
-      <c r="C3">
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>9579</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>53638</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>21069</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
       <c r="D5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>11158</v>
+        <v>1398</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>9579</v>
+        <v>566</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>4023</v>
+        <v>498</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>3793</v>
+        <v>290</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>2606</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2080</v>
-      </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>1707</v>
+        <v>53638</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>11158</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1707</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1398</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>734</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>566</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>498</v>
+        <v>134236</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>410</v>
+        <v>21069</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>377</v>
+        <v>4023</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>311</v>
+        <v>3793</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>290</v>
+        <v>734</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1470,313 +1458,313 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>2606</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>16</v>
       </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>14</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>13</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
       <c r="B35">
-        <v>11</v>
+        <v>410</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>377</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>311</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B40">
+        <v>51</v>
+      </c>
+      <c r="C40">
         <v>5</v>
       </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
       <c r="D40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
       <c r="D42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1790,7 +1778,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1804,37 +1792,49 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
         <v>5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I54">
     <sortCondition ref="C1:C54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/typescountssizedescriptions.xlsx
+++ b/typescountssizedescriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346c636219931f15/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:40009_{E7FA17B0-804B-4503-9851-AE82476475A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6C7D150-A9C4-4FDD-A128-BB30ABDEF303}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:40009_{E7FA17B0-804B-4503-9851-AE82476475A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46ED7D69-47DB-48A6-8BA9-5E2F61B4329F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>Type</t>
   </si>
@@ -310,6 +310,21 @@
   </si>
   <si>
     <t>earth mover</t>
+  </si>
+  <si>
+    <t># Types</t>
+  </si>
+  <si>
+    <t># Tickets</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Tickets/Types</t>
   </si>
 </sst>
 </file>
@@ -1150,16 +1165,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1380,7 +1396,7 @@
         <v>134236</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
         <v>50</v>
@@ -1610,7 +1626,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1624,7 +1640,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1638,7 +1654,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1652,7 +1668,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1666,7 +1682,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1680,7 +1696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1694,7 +1710,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -1708,7 +1724,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -1722,7 +1738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1736,7 +1752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1750,7 +1766,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1764,7 +1780,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1777,8 +1793,31 @@
       <c r="D44" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f>F45/F46</f>
+        <v>707</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44:J44" si="0">G45/G46</f>
+        <v>16380.75</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>40151</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>1769</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>310.46153846153845</v>
+      </c>
+      <c r="K44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1791,8 +1830,34 @@
       <c r="D45" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f>SUM(B1:B3)</f>
+        <v>2121</v>
+      </c>
+      <c r="G45">
+        <f>SUM(B4:B11)</f>
+        <v>131046</v>
+      </c>
+      <c r="H45">
+        <f>SUM(B12:B16)</f>
+        <v>200755</v>
+      </c>
+      <c r="I45">
+        <f>SUM(B17:B33)</f>
+        <v>30073</v>
+      </c>
+      <c r="J45">
+        <f>SUM(B34:B46)</f>
+        <v>4036</v>
+      </c>
+      <c r="K45" t="s">
+        <v>94</v>
+      </c>
+      <c r="L45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1805,8 +1870,30 @@
       <c r="D46" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f>SUM(C1:C3)</f>
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s">
+        <v>93</v>
+      </c>
+      <c r="L46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1816,25 +1903,25 @@
       <c r="C47" t="s">
         <v>48</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>1</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>2</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>3</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>4</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>5</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J54">
     <sortCondition ref="C1:C54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
